--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_017.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_017.xlsx
@@ -31,322 +31,328 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295006AA2.04) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295016AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Disabling/transferring control room controls</t>
-  </si>
-  <si>
-    <t>(295018AA1.06) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) RHR/LPCI</t>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295038EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Elevated vs. ground level release</t>
+  </si>
+  <si>
+    <t>(295001AK2.02) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Nuclear boiler instrumentation</t>
+  </si>
+  <si>
+    <t>(295030EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Systems required to shut down the reactor</t>
+  </si>
+  <si>
+    <t>(295021AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Increasing drywell cooling</t>
+  </si>
+  <si>
+    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295003AK1.07) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Load sequencing</t>
+  </si>
+  <si>
+    <t>(295019AK2.08) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Plant ventilation</t>
+  </si>
+  <si>
+    <t>(295031EA1.12) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Feedwater system</t>
+  </si>
+  <si>
+    <t>(295006AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Reactor water level response</t>
+  </si>
+  <si>
+    <t>(295027EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295026EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Heat capacity</t>
+  </si>
+  <si>
+    <t>(295023AK2.01) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Fuel handling equipment</t>
   </si>
   <si>
     <t>(700000AA1.07) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) Emergency generators (diesel/jet)</t>
   </si>
   <si>
-    <t xml:space="preserve">(295038EK2.09) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Post‑accident sample system </t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295037EA2.07) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Containment conditions/isolations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295001AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) </t>
-  </si>
-  <si>
-    <t>(295004AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Loss of breaker protection</t>
-  </si>
-  <si>
-    <t>(295021AA1.05) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Reactor recirculation</t>
-  </si>
-  <si>
-    <t>(295019AK2.11) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Radwaste</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295005AA2.08) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Electrical distribution status</t>
-  </si>
-  <si>
-    <t>(295023AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Ventilation isolation</t>
+    <t>(295005AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Recirculation pump downshift/trip</t>
+  </si>
+  <si>
+    <t>(295037EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
   </si>
   <si>
     <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
   </si>
   <si>
-    <t>(295003AA1.05) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) Station batteries</t>
-  </si>
-  <si>
-    <t>(295027EK2.03) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation/cooling</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295030EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295031EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Steam cooling</t>
-  </si>
-  <si>
-    <t>(295035EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.7 / 45.6) Secondary containment ventilation</t>
-  </si>
-  <si>
-    <t>(295012AK2.01) Knowledge of the relationship between the (APE 12) HIGH DRYWELL TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Drywell ventilation</t>
-  </si>
-  <si>
-    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295036EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Water level in the affected area</t>
-  </si>
-  <si>
-    <t>(500000EK3.07) Knowledge of the reasons for the following responses or actions as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.5 / 45.6) Operation of drywell vent</t>
-  </si>
-  <si>
-    <t>(295034EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.8 to 41.10) Radiation releases</t>
-  </si>
-  <si>
-    <t>(212000K4.08) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) SCRAM reset time delay</t>
-  </si>
-  <si>
-    <t>(203000K3.07) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Primary containment</t>
-  </si>
-  <si>
-    <t>(263000A3.03) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Transfers</t>
-  </si>
-  <si>
-    <t>(400000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.5 / 45.5) CCW pressure</t>
-  </si>
-  <si>
-    <t>(262002A2.03) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Frequency malfunctions in the system</t>
-  </si>
-  <si>
-    <t>(217000K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Leak detection</t>
-  </si>
-  <si>
-    <t>(218000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.7 / 45.7) Reactor water level instrumentation</t>
-  </si>
-  <si>
-    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(300000K5.15) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.5 / 45.3) High moisture content in instrument air</t>
-  </si>
-  <si>
-    <t>(264000K2.08) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) Knowledge of electrical power supplies to the following: (CFR: 41.7) Cooling water pumps</t>
+    <t>(295036EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.7 / 45.6 / 45.8) Equipment and floor drain sumps and pumps</t>
+  </si>
+  <si>
+    <t>(295002AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295033EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Area radiation levels </t>
+  </si>
+  <si>
+    <t>(295014) (APE 14) INADVERTENT REACTIVITY ADDITION (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(295022AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.8 to 41.10) Reactivity control</t>
+  </si>
+  <si>
+    <t>(295012AK2.02) Knowledge of the relationship between the (APE 12) HIGH DRYWELL TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Drywell cooling</t>
+  </si>
+  <si>
+    <t>(262001K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Breaker control power</t>
+  </si>
+  <si>
+    <t>(264000K2.03) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) Knowledge of electrical power supplies to the following: (CFR: 41.7) Turning gear (jet engine)</t>
+  </si>
+  <si>
+    <t>(510000K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SWS*) SERVICE WATER SYSTEM and the following systems: (CFR: 41.4 to 41.8 / 45.7 / 45.8) Residual heat removal/low-pressure coolant injection</t>
+  </si>
+  <si>
+    <t>(400000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.7 / 45.7) Service water system</t>
+  </si>
+  <si>
+    <t>(217000K4.03) Knowledge of (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Prevents pump overheating</t>
+  </si>
+  <si>
+    <t>(212000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) Valve position</t>
+  </si>
+  <si>
+    <t>(262002K3.06) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RPIS</t>
+  </si>
+  <si>
+    <t>(215005A3.06) Ability to monitor automatic operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.7 / 45.7) Maximum disagreement between flow comparator channels</t>
   </si>
   <si>
     <t>(211000A4.02) Ability to manually operate and/or monitor the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SLCS control switch</t>
   </si>
   <si>
-    <t>(259002K4.04) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Reactor water level setpoint setdown after a reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(510000K3.17) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Service water system flows</t>
-  </si>
-  <si>
-    <t>(239002A3.01) Ability to monitor automatic operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.7 / 45.7) SRV operation after ADS actuation</t>
-  </si>
-  <si>
-    <t>(223002A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Containment floor drain/equipment drain sump levels</t>
-  </si>
-  <si>
-    <t>(215004A2.03) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck detector</t>
-  </si>
-  <si>
-    <t>(215005K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) IRM system</t>
-  </si>
-  <si>
-    <t>(205000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (291005K1.08) MOTORS AND GENERATORS (CFR: 41.7) Consequences of overexcited/underexcited</t>
+    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(300000A2.01) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Air dryer and filter malfunctions</t>
+  </si>
+  <si>
+    <t>(203000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) NPSH limits</t>
+  </si>
+  <si>
+    <t>(205000K2.01) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) Knowledge of electrical power supplies to the following: (CFR: 41.7) Pump motors</t>
+  </si>
+  <si>
+    <t>(239002K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main steam system</t>
+  </si>
+  <si>
+    <t>(209002K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) High suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(218000K4.01) Knowledge of (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of an inadvertent initiation of ADS logic</t>
+  </si>
+  <si>
+    <t>(259002A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Feedwater string(s) selected for FWCI</t>
+  </si>
+  <si>
+    <t>(215003K3.02) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor manual control</t>
+  </si>
+  <si>
+    <t>(261000A3.04) Ability to monitor automatic operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.7 / 45.7) System temperature</t>
+  </si>
+  <si>
+    <t>(263000A4.06) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfers</t>
+  </si>
+  <si>
+    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (291006K1.03) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Basic heat transfer in a heat exchanger</t>
+  </si>
+  <si>
+    <t>(209001A2.01) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump trips</t>
   </si>
   <si>
     <t>(262001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Paralleling AC sources</t>
   </si>
   <si>
-    <t>(209001K2.01) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
-  </si>
-  <si>
-    <t>(215003A4.01) Ability to manually operate and/or monitor the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) IRM recorder indication</t>
-  </si>
-  <si>
-    <t>(212000K4.03) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Transferring RPS power supplies</t>
-  </si>
-  <si>
-    <t>(203000K3.03) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Automatic depressurization logic</t>
-  </si>
-  <si>
-    <t>(263000A3.02) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Breaker trips</t>
-  </si>
-  <si>
-    <t>(400000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.5 / 45.5) Surge tank level</t>
-  </si>
-  <si>
-    <t>(204000K2.01) (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
-  </si>
-  <si>
-    <t>(290002K3.01) Knowledge of the effect that a loss or malfunction of the (SF4 RVI) REACTOR VESSEL INTERNALS will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
-  </si>
-  <si>
-    <t>(286000K4.05) Knowledge of (SF8 FPS) FIRE PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.5 / 41.7 / 45.3 to 45.8) Maintaining fire protection capability during loss of offsite power</t>
-  </si>
-  <si>
-    <t>(245000K3.07) Knowledge of the effect that a loss or malfunction of the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor protection system</t>
-  </si>
-  <si>
-    <t>(510001A3.01) Ability to monitor automatic operation of the (SF8 CWS*) CIRCULATING WATER SYSTEM including: (CFR: 41.7 / 45.5) Pump starts/stops</t>
-  </si>
-  <si>
-    <t>(202001A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1, SF4 RS) RECIRCULATION SYSTEM including: (CFR: 41.5 / 45.5) Recirculation pump speed</t>
-  </si>
-  <si>
-    <t>(230000A2.10) Ability to (a) predict the impacts of the following on the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Nuclear boiler instrument failures</t>
-  </si>
-  <si>
-    <t>(239001K1.21) Knowledge of the physical connections and/or cause and effect relationships between the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Isolation condenser system (Nine Mile Point 1, Dresden)</t>
-  </si>
-  <si>
-    <t>(216000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION: (CFR: 41.7 / 45.7) RPV temperature/pressure changes</t>
-  </si>
-  <si>
-    <t>(290003) (SF9 CRV) CONTROL ROOM VENTILATION (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(234000K5.12) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 FH) FUEL HANDLING: (CFR: 41.5 / 45.3) Containment closure requirements</t>
-  </si>
-  <si>
-    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+    <t>(264000K2.06) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) Knowledge of electrical power supplies to the following: (CFR: 41.7) Battery charger</t>
+  </si>
+  <si>
+    <t>(510000K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SWS*) SERVICE WATER SYSTEM and the following systems: (CFR: 41.4 to 41.8 / 45.7 / 45.8) Feedwater system</t>
+  </si>
+  <si>
+    <t>(400000K6.13) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.7 / 45.7) Fuel pool cooling and cleanup system</t>
+  </si>
+  <si>
+    <t>(256000) (SF2 CDS) CONDENSATE SYSTEM (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(202002A2.06) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low reactor water level</t>
+  </si>
+  <si>
+    <t>(216000K5.13) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION: (CFR: 41.5 / 45.3) Reference leg flashing</t>
+  </si>
+  <si>
+    <t>(290001K2.02) (SF5 SC) SECONDARY CONTAINMENT Knowledge of electrical power supplies to the following: (CFR: 41.7) HVAC isolation dampers</t>
+  </si>
+  <si>
+    <t>(271000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 OG) OFFGAS SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 / 41.14 / 45.6 to 45.8) Reactor condensate system</t>
+  </si>
+  <si>
+    <t>(286000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 FPS) FIRE PROTECTION SYSTEM : (CFR: 41.7 / 45.7) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(241000K4.03) Knowledge of (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Turbine speed control</t>
+  </si>
+  <si>
+    <t>(288000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 PVS) PLANT VENTILATION SYSTEMS including: (CFR: 41.5 / 45.5) Area temperatures</t>
+  </si>
+  <si>
+    <t>(201005K3.05) Knowledge of the effect that a loss or malfunction of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) will have on the following systems or system parameters: (CFR: 41.6 / 41.7 / 45.4 to 45.6) Control rod drive mechanism system</t>
+  </si>
+  <si>
+    <t>(215001A3.07) Ability to monitor automatic operation of the (SF7 TIP) TRAVERSING IN CORE PROBE including: (CFR: 41.7 / 45.7) TIP detector withdrawal from the reactor core</t>
+  </si>
+  <si>
+    <t>(510001A4.01) Ability to manually operate and/or monitor the (SF8 CWS*) CIRCULATING WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Circulating water pumps</t>
+  </si>
+  <si>
+    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292001K1.03) NEUTRONS (CFR: 41.1) Define thermal neutrons</t>
+  </si>
+  <si>
+    <t>(292002K1.14) NEUTRON LIFE CYCLE (CFR: 41.1) Evaluate change in shutdown margin due to changes in plant parameters</t>
+  </si>
+  <si>
+    <t>(292005K1.07) CONTROL RODS (CFR: 41.1) Define control rod worth, differential CRW, and integral control rod worth</t>
+  </si>
+  <si>
+    <t>(293010K1.04) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State how the possibility of brittle fracture is minimized by operating limitations</t>
+  </si>
+  <si>
+    <t>(293003K1.16) STEAM (CFR: 41.14) Define the following term: Subcooling</t>
+  </si>
+  <si>
+    <t>(293004K1.14) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Explain the condensing process</t>
+  </si>
+  <si>
+    <t>(295018AA2.04) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) System flow</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295001AA2.09) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295021AA2.07) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor recirculation flow</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295016AA2.05) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
+  </si>
+  <si>
+    <t>(295010AA2.01) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Leak rates</t>
+  </si>
+  <si>
+    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295007AA2.01) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(217000A2.04) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC power loss</t>
+  </si>
+  <si>
+    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(262002A2.05) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of UPS</t>
+  </si>
+  <si>
+    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+  </si>
+  <si>
+    <t>(211000A2.01) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump trip</t>
+  </si>
+  <si>
+    <t>(290003) (SF9 CRV) CONTROL ROOM VENTILATION (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(201001A2.02) Ability to (a) predict the impacts of the following on the (SF1 CRDH) CRD HYDRAULIC SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.2 / 41.5-7 / 41.10 / 41.12-13 / 45.1-6) Valve closures due to malfunction(s)</t>
+  </si>
+  <si>
+    <t>(233000) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
     <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(292001K1.05) NEUTRONS (CFR: 41.1) Identify characteristics of good moderators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(292003K1.04) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define delayed neutron fraction and effective delayed </t>
-  </si>
-  <si>
-    <t>(292008K1.03) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (STARTUP AND APPROACH TO CRITICALITY) Describe count rate and instrument response that should be observed for rod withdrawal during the approach to criticality</t>
-  </si>
-  <si>
-    <t>(293007K1.02) HEAT TRANSFER (CFR: 41.14) (HEAT TRANSFER) Describe thermal conductivity</t>
-  </si>
-  <si>
-    <t>(293005K1.05) THERMODYNAMIC CYCLES (CFR: 41.14) State the advantages of moisture separators/reheaters and feedwater heaters for a typical steam cycle</t>
-  </si>
-  <si>
-    <t>(293010K1.05) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the effect of fast neutron irradiation on reactor vessel metals</t>
-  </si>
-  <si>
-    <t>(295006AA2.03) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295018AA2.06) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Surge tank level</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(295038EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(295037EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295029EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295033EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan</t>
-  </si>
-  <si>
-    <t>(262002A2.01) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal voltage</t>
-  </si>
-  <si>
-    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(218000A2.03) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of pneumatic supply to ADS valves</t>
-  </si>
-  <si>
-    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
-  </si>
-  <si>
-    <t>(300000A2.03) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low instrument air pressure</t>
-  </si>
-  <si>
-    <t>(219000) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
-  </si>
-  <si>
-    <t>(239003A2.04) Ability to (a) predict the impacts of the following on the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Outboard system logic failure</t>
-  </si>
-  <si>
-    <t>(226001) (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE  (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K3</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>G</t>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K6</t>
   </si>
   <si>
     <t>K4</t>
@@ -355,12 +361,6 @@
     <t>A3</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
     <t>295006</t>
   </si>
   <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295018</t>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295023</t>
   </si>
   <si>
     <t>700000</t>
   </si>
   <si>
-    <t>295038</t>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295037</t>
   </si>
   <si>
     <t>295025</t>
   </si>
   <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
     <t>600000</t>
   </si>
   <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295035</t>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>295022</t>
   </si>
   <si>
     <t>295012</t>
   </si>
   <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>295034</t>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>217000</t>
   </si>
   <si>
     <t>212000</t>
   </si>
   <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
     <t>203000</t>
   </si>
   <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
     <t>263000</t>
   </si>
   <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
     <t>223002</t>
   </si>
   <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
     <t>209001</t>
   </si>
   <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>290002</t>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>271000</t>
   </si>
   <si>
     <t>286000</t>
   </si>
   <si>
-    <t>245000</t>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>215001</t>
   </si>
   <si>
     <t>510001</t>
   </si>
   <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>216000</t>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295007</t>
   </si>
   <si>
     <t>290003</t>
   </si>
   <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>226001</t>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>233000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D54" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1939,7 +1939,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D61" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2347,7 +2347,7 @@
         <v>4.3</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D85" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D90" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2500,7 +2500,7 @@
         <v>3.8</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="D92" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
